--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,21 @@
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
@@ -70,39 +67,30 @@
     <t>disturbing</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>bad</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -115,10 +103,16 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>powerful</t>
@@ -127,73 +121,70 @@
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>important</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>watched</t>
   </si>
   <si>
     <t>’</t>
@@ -557,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -676,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9696969696969697</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K6">
         <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.72</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,38 +867,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L8">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>0.7017543859649122</v>
-      </c>
-      <c r="L8">
-        <v>40</v>
-      </c>
-      <c r="M8">
-        <v>40</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -918,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,10 +1020,10 @@
         <v>0.75</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.5862068965517241</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.55</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,49 +1117,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7391304347826086</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>17</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="L13">
-        <v>22</v>
-      </c>
-      <c r="M13">
-        <v>22</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.723404255319149</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.4242424242424243</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,37 +1217,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.4166666666666667</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.360655737704918</v>
+        <v>0.3087431693989071</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6159420289855072</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.3389830508474576</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5769230769230769</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.2996357012750455</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L18">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>769</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.2962962962962963</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5357142857142857</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.2352941176470588</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,237 +1517,141 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.06440677966101695</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.2328767123287671</v>
+      </c>
+      <c r="L21">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0.2210526315789474</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>0.1411764705882353</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K21">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="L21">
-        <v>15</v>
-      </c>
-      <c r="M21">
-        <v>15</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22">
-        <v>0.1894736842105263</v>
-      </c>
-      <c r="L22">
-        <v>18</v>
-      </c>
-      <c r="M22">
-        <v>18</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="C23">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23">
-        <v>0.1092592592592593</v>
-      </c>
-      <c r="L23">
-        <v>59</v>
-      </c>
-      <c r="M23">
-        <v>59</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C24">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>60</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.09593495934959349</v>
-      </c>
-      <c r="L24">
-        <v>59</v>
-      </c>
-      <c r="M24">
-        <v>60</v>
-      </c>
-      <c r="N24">
-        <v>0.98</v>
-      </c>
-      <c r="O24">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.06164383561643835</v>
-      </c>
-      <c r="C25">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>0.28</v>
-      </c>
-      <c r="F25">
-        <v>0.72</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>274</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.09186746987951808</v>
+        <v>0.1015873015873016</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,47 +1663,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>603</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.08156028368794327</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.07936507936507936</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1820,99 +1715,99 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>290</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.07624633431085044</v>
+        <v>0.08529411764705883</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29">
+        <v>0.08459214501510574</v>
+      </c>
+      <c r="L29">
+        <v>56</v>
+      </c>
+      <c r="M29">
         <v>58</v>
       </c>
-      <c r="K29">
-        <v>0.05824682814302191</v>
-      </c>
-      <c r="L29">
-        <v>101</v>
-      </c>
-      <c r="M29">
-        <v>103</v>
-      </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1633</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.04513888888888889</v>
+        <v>0.06455331412103746</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>275</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.03457106274007683</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1924,7 +1819,33 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>754</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32">
+        <v>0.04364569961489088</v>
+      </c>
+      <c r="L32">
+        <v>34</v>
+      </c>
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
